--- a/Gimmix/src/geneticEmblem/units/factory/FE.xlsx
+++ b/Gimmix/src/geneticEmblem/units/factory/FE.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="127">
   <si>
     <t>Class</t>
   </si>
@@ -306,9 +306,6 @@
     <t>Kaiser</t>
   </si>
   <si>
-    <t>KilnFiend</t>
-  </si>
-  <si>
     <t>Mercedes</t>
   </si>
   <si>
@@ -339,9 +336,6 @@
     <t>Regenerate</t>
   </si>
   <si>
-    <t>Flame Wizard</t>
-  </si>
-  <si>
     <t>Monk</t>
   </si>
   <si>
@@ -373,6 +367,51 @@
   </si>
   <si>
     <t>Saracen</t>
+  </si>
+  <si>
+    <t>Cremator</t>
+  </si>
+  <si>
+    <t>Woodcutter</t>
+  </si>
+  <si>
+    <t>Refector Mage</t>
+  </si>
+  <si>
+    <t>Nobles</t>
+  </si>
+  <si>
+    <t>ancemaster</t>
+  </si>
+  <si>
+    <t>Blue Mage</t>
+  </si>
+  <si>
+    <t>Jett</t>
+  </si>
+  <si>
+    <t>Markman</t>
+  </si>
+  <si>
+    <t>Kiln Fiend</t>
+  </si>
+  <si>
+    <t>Explorer</t>
+  </si>
+  <si>
+    <t>Channeler</t>
+  </si>
+  <si>
+    <t>Glem</t>
+  </si>
+  <si>
+    <t>Bandit</t>
+  </si>
+  <si>
+    <t>Viera</t>
+  </si>
+  <si>
+    <t>Butcher</t>
   </si>
 </sst>
 </file>
@@ -486,7 +525,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="16">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -585,16 +624,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
@@ -645,86 +674,6 @@
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1658,25 +1607,25 @@
     <sortCondition descending="1" ref="D2:D30"/>
   </sortState>
   <conditionalFormatting sqref="C16:C24">
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E30">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E11">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1690,8 +1639,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="B42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1725,14 +1674,14 @@
     </row>
     <row r="2" spans="2:7">
       <c r="C2" s="1" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D2" s="1">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="E2">
-        <f>SUM((100*D2)/2048)</f>
-        <v>8.7890625</v>
+        <f t="shared" ref="E2:E45" si="0">SUM((100*D2)/2048)</f>
+        <v>7.080078125</v>
       </c>
     </row>
     <row r="3" spans="2:7">
@@ -1740,38 +1689,38 @@
         <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D3" s="1">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="E3">
-        <f>SUM((100*D3)/2048)</f>
-        <v>8.056640625</v>
+        <f t="shared" si="0"/>
+        <v>6.689453125</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="C4" s="1" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="D4" s="1">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="E4">
-        <f>SUM((100*D4)/2048)</f>
-        <v>5.6640625</v>
+        <f t="shared" si="0"/>
+        <v>5.078125</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="C5" s="1" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="D5" s="1">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E5">
-        <f>SUM((100*D5)/2048)</f>
-        <v>5.126953125</v>
+        <f t="shared" si="0"/>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="6" spans="2:7">
@@ -1779,146 +1728,146 @@
         <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="D6" s="1">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="E6">
-        <f>SUM((100*D6)/2048)</f>
-        <v>5.126953125</v>
+        <f t="shared" si="0"/>
+        <v>4.443359375</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="C7" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D7" s="1">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E7">
-        <f>SUM((100*D7)/2048)</f>
-        <v>4.443359375</v>
+        <f t="shared" si="0"/>
+        <v>4.345703125</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="C8" s="1" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="D8" s="1">
         <v>80</v>
       </c>
       <c r="E8">
-        <f>SUM((100*D8)/2048)</f>
+        <f t="shared" si="0"/>
         <v>3.90625</v>
       </c>
     </row>
     <row r="9" spans="2:7">
       <c r="C9" s="1" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="D9" s="1">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E9">
-        <f>SUM((100*D9)/2048)</f>
-        <v>3.857421875</v>
+        <f t="shared" si="0"/>
+        <v>3.662109375</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="C10" s="1" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="D10" s="1">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E10">
-        <f>SUM((100*D10)/2048)</f>
-        <v>3.80859375</v>
+        <f t="shared" si="0"/>
+        <v>3.515625</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E11">
-        <f>SUM((100*D11)/2048)</f>
-        <v>3.759765625</v>
+        <f t="shared" si="0"/>
+        <v>3.466796875</v>
       </c>
     </row>
     <row r="12" spans="2:7">
       <c r="C12" s="1" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="D12" s="1">
         <v>66</v>
       </c>
       <c r="E12">
-        <f>SUM((100*D12)/2048)</f>
+        <f t="shared" si="0"/>
         <v>3.22265625</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="C13" s="1" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="D13" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E13">
-        <f>SUM((100*D13)/2048)</f>
-        <v>3.173828125</v>
+        <f t="shared" si="0"/>
+        <v>3.22265625</v>
       </c>
     </row>
     <row r="14" spans="2:7">
       <c r="C14" s="1" t="s">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="D14" s="1">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E14">
-        <f>SUM((100*D14)/2048)</f>
-        <v>3.076171875</v>
+        <f t="shared" si="0"/>
+        <v>3.173828125</v>
       </c>
     </row>
     <row r="15" spans="2:7">
       <c r="C15" s="1" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="D15" s="1">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E15">
-        <f>SUM((100*D15)/2048)</f>
-        <v>2.734375</v>
+        <f t="shared" si="0"/>
+        <v>3.125</v>
       </c>
     </row>
     <row r="16" spans="2:7">
       <c r="C16" s="1" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="D16" s="1">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E16">
-        <f>SUM((100*D16)/2048)</f>
-        <v>2.685546875</v>
+        <f t="shared" si="0"/>
+        <v>2.9296875</v>
       </c>
     </row>
     <row r="17" spans="2:8">
       <c r="C17" s="1" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="D17" s="1">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E17">
-        <f>SUM((100*D17)/2048)</f>
-        <v>2.587890625</v>
+        <f t="shared" si="0"/>
+        <v>2.734375</v>
       </c>
     </row>
     <row r="18" spans="2:8">
@@ -1926,26 +1875,26 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="D18" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E18">
-        <f>SUM((100*D18)/2048)</f>
-        <v>2.587890625</v>
+        <f t="shared" si="0"/>
+        <v>2.685546875</v>
       </c>
     </row>
     <row r="19" spans="2:8">
       <c r="C19" s="1" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="D19" s="1">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E19">
-        <f>SUM((100*D19)/2048)</f>
-        <v>2.5390625</v>
+        <f t="shared" si="0"/>
+        <v>2.63671875</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>15</v>
@@ -1957,50 +1906,50 @@
     </row>
     <row r="20" spans="2:8">
       <c r="C20" s="1" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="D20" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E20">
-        <f>SUM((100*D20)/2048)</f>
-        <v>2.34375</v>
+        <f t="shared" si="0"/>
+        <v>2.44140625</v>
       </c>
     </row>
     <row r="21" spans="2:8">
       <c r="C21" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D21" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E21">
-        <f>SUM((100*D21)/2048)</f>
-        <v>2.34375</v>
+        <f t="shared" si="0"/>
+        <v>2.392578125</v>
       </c>
     </row>
     <row r="22" spans="2:8">
       <c r="C22" s="1" t="s">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="D22" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E22">
-        <f>SUM((100*D22)/2048)</f>
-        <v>2.1484375</v>
+        <f t="shared" si="0"/>
+        <v>2.197265625</v>
       </c>
     </row>
     <row r="23" spans="2:8">
       <c r="C23" s="1" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="D23" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E23">
-        <f>SUM((100*D23)/2048)</f>
-        <v>2.1484375</v>
+        <f t="shared" si="0"/>
+        <v>2.099609375</v>
       </c>
     </row>
     <row r="24" spans="2:8">
@@ -2008,166 +1957,262 @@
         <v>44</v>
       </c>
       <c r="D24" s="1">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E24">
-        <f>SUM((100*D24)/2048)</f>
-        <v>1.904296875</v>
+        <f t="shared" si="0"/>
+        <v>2.05078125</v>
       </c>
     </row>
     <row r="25" spans="2:8">
       <c r="C25" s="1" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="D25" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E25">
-        <f>SUM((100*D25)/2048)</f>
-        <v>1.85546875</v>
+        <f t="shared" si="0"/>
+        <v>1.953125</v>
       </c>
     </row>
     <row r="26" spans="2:8">
       <c r="C26" s="1" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="D26" s="1">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E26">
-        <f>SUM((100*D26)/2048)</f>
-        <v>1.7578125</v>
+        <f t="shared" si="0"/>
+        <v>1.904296875</v>
       </c>
     </row>
     <row r="27" spans="2:8">
       <c r="C27" s="1" t="s">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="D27" s="1">
         <v>35</v>
       </c>
       <c r="E27">
-        <f>SUM((100*D27)/2048)</f>
+        <f t="shared" si="0"/>
         <v>1.708984375</v>
       </c>
     </row>
     <row r="28" spans="2:8">
       <c r="C28" s="1" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="D28" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E28">
-        <f>SUM((100*D28)/2048)</f>
-        <v>1.66015625</v>
+        <f t="shared" si="0"/>
+        <v>1.611328125</v>
       </c>
     </row>
     <row r="29" spans="2:8">
       <c r="C29" s="1" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="D29" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E29">
-        <f>SUM((100*D29)/2048)</f>
-        <v>1.46484375</v>
+        <f t="shared" si="0"/>
+        <v>1.513671875</v>
       </c>
     </row>
     <row r="30" spans="2:8">
       <c r="C30" s="1" t="s">
-        <v>111</v>
+        <v>24</v>
       </c>
       <c r="D30" s="1">
         <v>28</v>
       </c>
       <c r="E30">
-        <f>SUM((100*D30)/2048)</f>
+        <f t="shared" si="0"/>
         <v>1.3671875</v>
       </c>
     </row>
     <row r="31" spans="2:8">
       <c r="C31" s="1" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="D31" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
-        <f>SUM((100*D31)/2048)</f>
-        <v>1.220703125</v>
+        <f t="shared" si="0"/>
+        <v>1.171875</v>
       </c>
     </row>
     <row r="32" spans="2:8">
       <c r="C32" s="1" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="D32" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E32">
-        <f>SUM((100*D32)/2048)</f>
-        <v>1.220703125</v>
+        <f t="shared" si="0"/>
+        <v>1.171875</v>
       </c>
     </row>
     <row r="33" spans="3:6">
       <c r="C33" s="1" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="D33" s="1">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E33">
-        <f>SUM((100*D33)/2048)</f>
-        <v>0.830078125</v>
+        <f t="shared" si="0"/>
+        <v>1.07421875</v>
       </c>
     </row>
     <row r="34" spans="3:6">
       <c r="C34" s="1" t="s">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="D34" s="1">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E34">
-        <f>SUM((100*D34)/2048)</f>
-        <v>0.5859375</v>
+        <f t="shared" si="0"/>
+        <v>1.025390625</v>
       </c>
     </row>
     <row r="35" spans="3:6">
       <c r="C35" s="1" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="D35" s="1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E35">
-        <f>SUM((100*D35)/2048)</f>
-        <v>0.146484375</v>
+        <f t="shared" si="0"/>
+        <v>0.78125</v>
       </c>
     </row>
     <row r="36" spans="3:6">
       <c r="C36" s="1" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="D36" s="1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E36">
-        <f>SUM((100*D36)/2048)</f>
-        <v>9.765625E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.78125</v>
       </c>
     </row>
     <row r="37" spans="3:6">
       <c r="C37" s="1" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="D37" s="1">
+        <v>11</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>0.537109375</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6">
+      <c r="C38" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38" s="1">
+        <v>9</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>0.439453125</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6">
+      <c r="C39" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" s="1">
+        <v>9</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>0.439453125</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6">
+      <c r="C40" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D40" s="1">
+        <v>9</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>0.439453125</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6">
+      <c r="C41" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41" s="1">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>9.765625E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6">
+      <c r="C42" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" s="1">
         <v>1</v>
       </c>
-      <c r="E37">
-        <f>SUM((100*D37)/2048)</f>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6">
+      <c r="C43" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6">
+      <c r="C44" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6">
+      <c r="C45" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
         <v>4.8828125E-2</v>
       </c>
     </row>
@@ -2186,7 +2231,7 @@
     <sortCondition ref="C10:C45"/>
   </sortState>
   <conditionalFormatting sqref="C16:C24">
-    <cfRule type="cellIs" dxfId="11" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2434,21 +2479,21 @@
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>81</v>
@@ -2456,10 +2501,10 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>82</v>
@@ -2467,10 +2512,10 @@
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>84</v>
@@ -2478,10 +2523,10 @@
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>83</v>

--- a/Gimmix/src/geneticEmblem/units/factory/FE.xlsx
+++ b/Gimmix/src/geneticEmblem/units/factory/FE.xlsx
@@ -1640,7 +1640,7 @@
   <dimension ref="B1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Gimmix/src/geneticEmblem/units/factory/FE.xlsx
+++ b/Gimmix/src/geneticEmblem/units/factory/FE.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="120">
   <si>
     <t>Class</t>
   </si>
@@ -294,9 +294,6 @@
     <t>Assassin</t>
   </si>
   <si>
-    <t>Bael</t>
-  </si>
-  <si>
     <t>Crossbowman</t>
   </si>
   <si>
@@ -354,21 +351,12 @@
     <t>Conduit Mage</t>
   </si>
   <si>
-    <t>Convict</t>
-  </si>
-  <si>
     <t>Portal Mage</t>
   </si>
   <si>
-    <t>Wind Breaker</t>
-  </si>
-  <si>
     <t>Trapper</t>
   </si>
   <si>
-    <t>Saracen</t>
-  </si>
-  <si>
     <t>Cremator</t>
   </si>
   <si>
@@ -381,9 +369,6 @@
     <t>Nobles</t>
   </si>
   <si>
-    <t>ancemaster</t>
-  </si>
-  <si>
     <t>Blue Mage</t>
   </si>
   <si>
@@ -402,16 +387,10 @@
     <t>Channeler</t>
   </si>
   <si>
-    <t>Glem</t>
-  </si>
-  <si>
     <t>Bandit</t>
   </si>
   <si>
-    <t>Viera</t>
-  </si>
-  <si>
-    <t>Butcher</t>
+    <t>Merchant</t>
   </si>
 </sst>
 </file>
@@ -1639,8 +1618,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1674,14 +1653,14 @@
     </row>
     <row r="2" spans="2:7">
       <c r="C2" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D2" s="1">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E45" si="0">SUM((100*D2)/2048)</f>
-        <v>7.080078125</v>
+        <f>SUM((100*D2)/2048)</f>
+        <v>7.568359375</v>
       </c>
     </row>
     <row r="3" spans="2:7">
@@ -1692,35 +1671,35 @@
         <v>46</v>
       </c>
       <c r="D3" s="1">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E3">
-        <f t="shared" si="0"/>
-        <v>6.689453125</v>
+        <f>SUM((100*D3)/2048)</f>
+        <v>6.591796875</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="C4" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D4" s="1">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
-        <v>5.078125</v>
+        <f>SUM((100*D4)/2048)</f>
+        <v>6.54296875</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="C5" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D5" s="1">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
-        <v>4.6875</v>
+        <f>SUM((100*D5)/2048)</f>
+        <v>5.029296875</v>
       </c>
     </row>
     <row r="6" spans="2:7">
@@ -1728,146 +1707,146 @@
         <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="D6" s="1">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
-        <v>4.443359375</v>
+        <f>SUM((100*D6)/2048)</f>
+        <v>4.8828125</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="C7" s="1" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="D7" s="1">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
-        <v>4.345703125</v>
+        <f>SUM((100*D7)/2048)</f>
+        <v>4.00390625</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="C8" s="1" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="D8" s="1">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
-        <v>3.90625</v>
+        <f>SUM((100*D8)/2048)</f>
+        <v>3.759765625</v>
       </c>
     </row>
     <row r="9" spans="2:7">
       <c r="C9" s="1" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="D9" s="1">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
-        <v>3.662109375</v>
+        <f>SUM((100*D9)/2048)</f>
+        <v>3.759765625</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="C10" s="1" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D10" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
-        <v>3.515625</v>
+        <f>SUM((100*D10)/2048)</f>
+        <v>3.466796875</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="C11" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="D11" s="1">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
-        <v>3.466796875</v>
+        <f>SUM((100*D11)/2048)</f>
+        <v>3.125</v>
       </c>
     </row>
     <row r="12" spans="2:7">
       <c r="C12" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D12" s="1">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
-        <v>3.22265625</v>
+        <f>SUM((100*D12)/2048)</f>
+        <v>2.978515625</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="C13" s="1" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="D13" s="1">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
-        <v>3.22265625</v>
+        <f>SUM((100*D13)/2048)</f>
+        <v>2.978515625</v>
       </c>
     </row>
     <row r="14" spans="2:7">
       <c r="C14" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D14" s="1">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
-        <v>3.173828125</v>
+        <f>SUM((100*D14)/2048)</f>
+        <v>2.9296875</v>
       </c>
     </row>
     <row r="15" spans="2:7">
       <c r="C15" s="1" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="D15" s="1">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
-        <v>3.125</v>
+        <f>SUM((100*D15)/2048)</f>
+        <v>2.83203125</v>
       </c>
     </row>
     <row r="16" spans="2:7">
       <c r="C16" s="1" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="D16" s="1">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
-        <v>2.9296875</v>
+        <f>SUM((100*D16)/2048)</f>
+        <v>2.783203125</v>
       </c>
     </row>
     <row r="17" spans="2:8">
       <c r="C17" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D17" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
-        <v>2.734375</v>
+        <f>SUM((100*D17)/2048)</f>
+        <v>2.783203125</v>
       </c>
     </row>
     <row r="18" spans="2:8">
@@ -1875,26 +1854,26 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>116</v>
+        <v>7</v>
       </c>
       <c r="D18" s="1">
         <v>55</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
+        <f>SUM((100*D18)/2048)</f>
         <v>2.685546875</v>
       </c>
     </row>
     <row r="19" spans="2:8">
       <c r="C19" s="1" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="D19" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
-        <v>2.63671875</v>
+        <f>SUM((100*D19)/2048)</f>
+        <v>2.685546875</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>15</v>
@@ -1906,133 +1885,133 @@
     </row>
     <row r="20" spans="2:8">
       <c r="C20" s="1" t="s">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="D20" s="1">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
-        <v>2.44140625</v>
+        <f>SUM((100*D20)/2048)</f>
+        <v>2.5390625</v>
       </c>
     </row>
     <row r="21" spans="2:8">
       <c r="C21" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D21" s="1">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
-        <v>2.392578125</v>
+        <f>SUM((100*D21)/2048)</f>
+        <v>2.490234375</v>
       </c>
     </row>
     <row r="22" spans="2:8">
       <c r="C22" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D22" s="1">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
-        <v>2.197265625</v>
+        <f>SUM((100*D22)/2048)</f>
+        <v>2.490234375</v>
       </c>
     </row>
     <row r="23" spans="2:8">
       <c r="C23" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D23" s="1">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
-        <v>2.099609375</v>
+        <f>SUM((100*D23)/2048)</f>
+        <v>2.294921875</v>
       </c>
     </row>
     <row r="24" spans="2:8">
       <c r="C24" s="1" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="D24" s="1">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
-        <v>2.05078125</v>
+        <f>SUM((100*D24)/2048)</f>
+        <v>2.197265625</v>
       </c>
     </row>
     <row r="25" spans="2:8">
       <c r="C25" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D25" s="1">
         <v>40</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
+        <f>SUM((100*D25)/2048)</f>
         <v>1.953125</v>
       </c>
     </row>
     <row r="26" spans="2:8">
       <c r="C26" s="1" t="s">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="D26" s="1">
         <v>39</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
+        <f>SUM((100*D26)/2048)</f>
         <v>1.904296875</v>
       </c>
     </row>
     <row r="27" spans="2:8">
       <c r="C27" s="1" t="s">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="D27" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E27">
-        <f t="shared" si="0"/>
-        <v>1.708984375</v>
+        <f>SUM((100*D27)/2048)</f>
+        <v>1.806640625</v>
       </c>
     </row>
     <row r="28" spans="2:8">
       <c r="C28" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D28" s="1">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E28">
-        <f t="shared" si="0"/>
-        <v>1.611328125</v>
+        <f>SUM((100*D28)/2048)</f>
+        <v>1.46484375</v>
       </c>
     </row>
     <row r="29" spans="2:8">
       <c r="C29" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D29" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E29">
-        <f t="shared" si="0"/>
-        <v>1.513671875</v>
+        <f>SUM((100*D29)/2048)</f>
+        <v>1.416015625</v>
       </c>
     </row>
     <row r="30" spans="2:8">
       <c r="C30" s="1" t="s">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="D30" s="1">
         <v>28</v>
       </c>
       <c r="E30">
-        <f t="shared" si="0"/>
+        <f>SUM((100*D30)/2048)</f>
         <v>1.3671875</v>
       </c>
     </row>
@@ -2041,179 +2020,143 @@
         <v>26</v>
       </c>
       <c r="D31" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E31">
-        <f t="shared" si="0"/>
-        <v>1.171875</v>
+        <f>SUM((100*D31)/2048)</f>
+        <v>1.220703125</v>
       </c>
     </row>
     <row r="32" spans="2:8">
       <c r="C32" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D32" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E32">
-        <f t="shared" si="0"/>
-        <v>1.171875</v>
+        <f>SUM((100*D32)/2048)</f>
+        <v>1.220703125</v>
       </c>
     </row>
     <row r="33" spans="3:6">
       <c r="C33" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D33" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E33">
-        <f t="shared" si="0"/>
-        <v>1.07421875</v>
+        <f>SUM((100*D33)/2048)</f>
+        <v>1.171875</v>
       </c>
     </row>
     <row r="34" spans="3:6">
       <c r="C34" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D34" s="1">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E34">
-        <f t="shared" si="0"/>
-        <v>1.025390625</v>
+        <f>SUM((100*D34)/2048)</f>
+        <v>0.87890625</v>
       </c>
     </row>
     <row r="35" spans="3:6">
       <c r="C35" s="1" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="D35" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E35">
-        <f t="shared" si="0"/>
-        <v>0.78125</v>
+        <f>SUM((100*D35)/2048)</f>
+        <v>0.830078125</v>
       </c>
     </row>
     <row r="36" spans="3:6">
       <c r="C36" s="1" t="s">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="D36" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E36">
-        <f t="shared" si="0"/>
-        <v>0.78125</v>
+        <f>SUM((100*D36)/2048)</f>
+        <v>0.68359375</v>
       </c>
     </row>
     <row r="37" spans="3:6">
       <c r="C37" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D37" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E37">
-        <f t="shared" si="0"/>
-        <v>0.537109375</v>
+        <f>SUM((100*D37)/2048)</f>
+        <v>0.390625</v>
       </c>
     </row>
     <row r="38" spans="3:6">
       <c r="C38" s="1" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="D38" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E38">
-        <f t="shared" si="0"/>
-        <v>0.439453125</v>
+        <f>SUM((100*D38)/2048)</f>
+        <v>0.244140625</v>
       </c>
     </row>
     <row r="39" spans="3:6">
       <c r="C39" s="1" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="D39" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E39">
-        <f t="shared" si="0"/>
-        <v>0.439453125</v>
+        <f>SUM((100*D39)/2048)</f>
+        <v>4.8828125E-2</v>
       </c>
     </row>
     <row r="40" spans="3:6">
-      <c r="C40" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D40" s="1">
-        <v>9</v>
-      </c>
       <c r="E40">
-        <f t="shared" si="0"/>
-        <v>0.439453125</v>
+        <f>SUM((100*D40)/2048)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="3:6">
-      <c r="C41" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D41" s="1">
-        <v>2</v>
-      </c>
       <c r="E41">
-        <f t="shared" si="0"/>
-        <v>9.765625E-2</v>
+        <f>SUM((100*D41)/2048)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="3:6">
-      <c r="C42" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D42" s="1">
-        <v>1</v>
-      </c>
       <c r="E42">
-        <f t="shared" si="0"/>
-        <v>4.8828125E-2</v>
+        <f>SUM((100*D42)/2048)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="3:6">
-      <c r="C43" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D43" s="1">
-        <v>1</v>
-      </c>
       <c r="E43">
-        <f t="shared" si="0"/>
-        <v>4.8828125E-2</v>
+        <f>SUM((100*D43)/2048)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="3:6">
-      <c r="C44" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D44" s="1">
-        <v>1</v>
-      </c>
       <c r="E44">
-        <f t="shared" si="0"/>
-        <v>4.8828125E-2</v>
+        <f>SUM((100*D44)/2048)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="3:6">
-      <c r="C45" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D45" s="1">
-        <v>1</v>
-      </c>
       <c r="E45">
-        <f t="shared" si="0"/>
-        <v>4.8828125E-2</v>
+        <f>SUM((100*D45)/2048)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="3:6">
@@ -2226,9 +2169,9 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="C10:E45">
-    <sortCondition descending="1" ref="D10:D45"/>
-    <sortCondition ref="C10:C45"/>
+  <sortState ref="C3:E39">
+    <sortCondition descending="1" ref="D3:D39"/>
+    <sortCondition ref="C3:C39"/>
   </sortState>
   <conditionalFormatting sqref="C16:C24">
     <cfRule type="cellIs" dxfId="10" priority="19" operator="equal">
@@ -2479,21 +2422,21 @@
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>81</v>
@@ -2501,10 +2444,10 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>82</v>
@@ -2512,10 +2455,10 @@
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>84</v>
@@ -2523,10 +2466,10 @@
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>83</v>

--- a/Gimmix/src/geneticEmblem/units/factory/FE.xlsx
+++ b/Gimmix/src/geneticEmblem/units/factory/FE.xlsx
@@ -14,9 +14,8 @@
   <sheets>
     <sheet name="Lv1" sheetId="2" r:id="rId1"/>
     <sheet name="Lv15" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="7" state="hidden" r:id="rId4"/>
-    <sheet name="Lv40" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="7" state="hidden" r:id="rId3"/>
+    <sheet name="Lv40" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Lv15'!$C$2:$E$20</definedName>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="80">
   <si>
     <t>Class</t>
   </si>
@@ -180,114 +179,6 @@
     <t>Farmer</t>
   </si>
   <si>
-    <t>Sword</t>
-  </si>
-  <si>
-    <t>Axe</t>
-  </si>
-  <si>
-    <t>Lance</t>
-  </si>
-  <si>
-    <t>Anima</t>
-  </si>
-  <si>
-    <t>Dark</t>
-  </si>
-  <si>
-    <t>Light</t>
-  </si>
-  <si>
-    <t>Shield</t>
-  </si>
-  <si>
-    <t>Claw</t>
-  </si>
-  <si>
-    <t>Gun</t>
-  </si>
-  <si>
-    <t>Bow</t>
-  </si>
-  <si>
-    <t>Iron Shield</t>
-  </si>
-  <si>
-    <t>Iron Gun</t>
-  </si>
-  <si>
-    <t>Iron Bow</t>
-  </si>
-  <si>
-    <t>Sharp Claw</t>
-  </si>
-  <si>
-    <t>Iron Gear</t>
-  </si>
-  <si>
-    <t>Rake</t>
-  </si>
-  <si>
-    <t>Fire Claw</t>
-  </si>
-  <si>
-    <t>Wind Bow</t>
-  </si>
-  <si>
-    <t>Wall of Swords</t>
-  </si>
-  <si>
-    <t>Oathbow</t>
-  </si>
-  <si>
-    <t>Portal</t>
-  </si>
-  <si>
-    <t>Dual Bowgun</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Bayonet</t>
-  </si>
-  <si>
-    <t>Forblaze</t>
-  </si>
-  <si>
-    <t>Dark Claw</t>
-  </si>
-  <si>
-    <t>HuntersGear</t>
-  </si>
-  <si>
-    <t>Spiked Shield</t>
-  </si>
-  <si>
-    <t>Holy Claw</t>
-  </si>
-  <si>
-    <t>Knuckleduster</t>
-  </si>
-  <si>
-    <t>Light Axe</t>
-  </si>
-  <si>
-    <t>Claw Axe</t>
-  </si>
-  <si>
-    <t>Gun Axe</t>
-  </si>
-  <si>
-    <t>Dark Lance</t>
-  </si>
-  <si>
-    <t>Light Anima</t>
-  </si>
-  <si>
-    <t>Light Bow</t>
-  </si>
-  <si>
     <t>Aristocrat</t>
   </si>
   <si>
@@ -312,27 +203,6 @@
     <t>Mogall</t>
   </si>
   <si>
-    <t>Cannon</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> = </t>
-  </si>
-  <si>
-    <t>GunLance</t>
-  </si>
-  <si>
-    <t>MarauderGer</t>
-  </si>
-  <si>
-    <t>SoulSpear</t>
-  </si>
-  <si>
-    <t>Holy Arrow</t>
-  </si>
-  <si>
-    <t>Regenerate</t>
-  </si>
-  <si>
     <t>Monk</t>
   </si>
   <si>
@@ -391,6 +261,15 @@
   </si>
   <si>
     <t>Merchant</t>
+  </si>
+  <si>
+    <t>War Monk</t>
+  </si>
+  <si>
+    <t>Saracen</t>
+  </si>
+  <si>
+    <t>Android</t>
   </si>
 </sst>
 </file>
@@ -1619,7 +1498,7 @@
   <dimension ref="B1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1653,14 +1532,14 @@
     </row>
     <row r="2" spans="2:7">
       <c r="C2" s="1" t="s">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="D2" s="1">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E2">
         <f>SUM((100*D2)/2048)</f>
-        <v>7.568359375</v>
+        <v>7.861328125</v>
       </c>
     </row>
     <row r="3" spans="2:7">
@@ -1668,38 +1547,38 @@
         <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D3" s="1">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="E3">
         <f>SUM((100*D3)/2048)</f>
-        <v>6.591796875</v>
+        <v>5.2734375</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="C4" s="1" t="s">
-        <v>106</v>
+        <v>54</v>
       </c>
       <c r="D4" s="1">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="E4">
         <f>SUM((100*D4)/2048)</f>
-        <v>6.54296875</v>
+        <v>5.224609375</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="C5" s="1" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="D5" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E5">
         <f>SUM((100*D5)/2048)</f>
-        <v>5.029296875</v>
+        <v>4.98046875</v>
       </c>
     </row>
     <row r="6" spans="2:7">
@@ -1707,139 +1586,139 @@
         <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="D6" s="1">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="E6">
         <f>SUM((100*D6)/2048)</f>
-        <v>4.8828125</v>
+        <v>4.19921875</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="C7" s="1" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="D7" s="1">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E7">
         <f>SUM((100*D7)/2048)</f>
-        <v>4.00390625</v>
+        <v>4.19921875</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="C8" s="1" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="D8" s="1">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E8">
         <f>SUM((100*D8)/2048)</f>
-        <v>3.759765625</v>
+        <v>4.150390625</v>
       </c>
     </row>
     <row r="9" spans="2:7">
       <c r="C9" s="1" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="D9" s="1">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E9">
         <f>SUM((100*D9)/2048)</f>
-        <v>3.759765625</v>
+        <v>4.00390625</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="C10" s="1" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="D10" s="1">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E10">
         <f>SUM((100*D10)/2048)</f>
-        <v>3.466796875</v>
+        <v>3.857421875</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="C11" s="1" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="D11" s="1">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="E11">
         <f>SUM((100*D11)/2048)</f>
-        <v>3.125</v>
+        <v>3.662109375</v>
       </c>
     </row>
     <row r="12" spans="2:7">
       <c r="C12" s="1" t="s">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="D12" s="1">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E12">
         <f>SUM((100*D12)/2048)</f>
-        <v>2.978515625</v>
+        <v>3.515625</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="C13" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D13" s="1">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E13">
         <f>SUM((100*D13)/2048)</f>
-        <v>2.978515625</v>
+        <v>3.22265625</v>
       </c>
     </row>
     <row r="14" spans="2:7">
       <c r="C14" s="1" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="D14" s="1">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E14">
         <f>SUM((100*D14)/2048)</f>
-        <v>2.9296875</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="15" spans="2:7">
       <c r="C15" s="1" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="D15" s="1">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E15">
         <f>SUM((100*D15)/2048)</f>
-        <v>2.83203125</v>
+        <v>3.02734375</v>
       </c>
     </row>
     <row r="16" spans="2:7">
       <c r="C16" s="1" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="D16" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E16">
         <f>SUM((100*D16)/2048)</f>
-        <v>2.783203125</v>
+        <v>2.83203125</v>
       </c>
     </row>
     <row r="17" spans="2:8">
       <c r="C17" s="1" t="s">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="D17" s="1">
         <v>57</v>
@@ -1866,14 +1745,14 @@
     </row>
     <row r="19" spans="2:8">
       <c r="C19" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D19" s="1">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <f>SUM((100*D19)/2048)</f>
-        <v>2.685546875</v>
+        <v>2.587890625</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>15</v>
@@ -1885,7 +1764,7 @@
     </row>
     <row r="20" spans="2:8">
       <c r="C20" s="1" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="D20" s="1">
         <v>52</v>
@@ -1897,31 +1776,31 @@
     </row>
     <row r="21" spans="2:8">
       <c r="C21" s="1" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="D21" s="1">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E21">
         <f>SUM((100*D21)/2048)</f>
-        <v>2.490234375</v>
+        <v>2.392578125</v>
       </c>
     </row>
     <row r="22" spans="2:8">
       <c r="C22" s="1" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D22" s="1">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E22">
         <f>SUM((100*D22)/2048)</f>
-        <v>2.490234375</v>
+        <v>2.392578125</v>
       </c>
     </row>
     <row r="23" spans="2:8">
       <c r="C23" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D23" s="1">
         <v>47</v>
@@ -1933,7 +1812,7 @@
     </row>
     <row r="24" spans="2:8">
       <c r="C24" s="1" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="D24" s="1">
         <v>45</v>
@@ -1945,134 +1824,134 @@
     </row>
     <row r="25" spans="2:8">
       <c r="C25" s="1" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="D25" s="1">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E25">
         <f>SUM((100*D25)/2048)</f>
-        <v>1.953125</v>
+        <v>2.1484375</v>
       </c>
     </row>
     <row r="26" spans="2:8">
       <c r="C26" s="1" t="s">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="D26" s="1">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E26">
         <f>SUM((100*D26)/2048)</f>
-        <v>1.904296875</v>
+        <v>2.05078125</v>
       </c>
     </row>
     <row r="27" spans="2:8">
       <c r="C27" s="1" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="D27" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E27">
         <f>SUM((100*D27)/2048)</f>
-        <v>1.806640625</v>
+        <v>1.904296875</v>
       </c>
     </row>
     <row r="28" spans="2:8">
       <c r="C28" s="1" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D28" s="1">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E28">
         <f>SUM((100*D28)/2048)</f>
-        <v>1.46484375</v>
+        <v>1.611328125</v>
       </c>
     </row>
     <row r="29" spans="2:8">
       <c r="C29" s="1" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="D29" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E29">
         <f>SUM((100*D29)/2048)</f>
-        <v>1.416015625</v>
+        <v>1.513671875</v>
       </c>
     </row>
     <row r="30" spans="2:8">
       <c r="C30" s="1" t="s">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="D30" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E30">
         <f>SUM((100*D30)/2048)</f>
-        <v>1.3671875</v>
+        <v>1.416015625</v>
       </c>
     </row>
     <row r="31" spans="2:8">
       <c r="C31" s="1" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="D31" s="1">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E31">
         <f>SUM((100*D31)/2048)</f>
-        <v>1.220703125</v>
+        <v>1.3671875</v>
       </c>
     </row>
     <row r="32" spans="2:8">
       <c r="C32" s="1" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="D32" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E32">
         <f>SUM((100*D32)/2048)</f>
-        <v>1.220703125</v>
+        <v>1.171875</v>
       </c>
     </row>
     <row r="33" spans="3:6">
       <c r="C33" s="1" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="D33" s="1">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E33">
         <f>SUM((100*D33)/2048)</f>
-        <v>1.171875</v>
+        <v>0.87890625</v>
       </c>
     </row>
     <row r="34" spans="3:6">
       <c r="C34" s="1" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="D34" s="1">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E34">
         <f>SUM((100*D34)/2048)</f>
-        <v>0.87890625</v>
+        <v>0.5859375</v>
       </c>
     </row>
     <row r="35" spans="3:6">
       <c r="C35" s="1" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="D35" s="1">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E35">
         <f>SUM((100*D35)/2048)</f>
-        <v>0.830078125</v>
+        <v>0.537109375</v>
       </c>
     </row>
     <row r="36" spans="3:6">
@@ -2080,28 +1959,28 @@
         <v>39</v>
       </c>
       <c r="D36" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E36">
         <f>SUM((100*D36)/2048)</f>
-        <v>0.68359375</v>
+        <v>0.537109375</v>
       </c>
     </row>
     <row r="37" spans="3:6">
       <c r="C37" s="1" t="s">
-        <v>118</v>
+        <v>66</v>
       </c>
       <c r="D37" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E37">
         <f>SUM((100*D37)/2048)</f>
-        <v>0.390625</v>
+        <v>0.537109375</v>
       </c>
     </row>
     <row r="38" spans="3:6">
       <c r="C38" s="1" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="D38" s="1">
         <v>5</v>
@@ -2113,35 +1992,59 @@
     </row>
     <row r="39" spans="3:6">
       <c r="C39" s="1" t="s">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="D39" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E39">
         <f>SUM((100*D39)/2048)</f>
-        <v>4.8828125E-2</v>
+        <v>0.244140625</v>
       </c>
     </row>
     <row r="40" spans="3:6">
+      <c r="C40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" s="1">
+        <v>2</v>
+      </c>
       <c r="E40">
         <f>SUM((100*D40)/2048)</f>
-        <v>0</v>
+        <v>9.765625E-2</v>
       </c>
     </row>
     <row r="41" spans="3:6">
+      <c r="C41" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" s="1">
+        <v>2</v>
+      </c>
       <c r="E41">
         <f>SUM((100*D41)/2048)</f>
-        <v>0</v>
+        <v>9.765625E-2</v>
       </c>
     </row>
     <row r="42" spans="3:6">
+      <c r="C42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1</v>
+      </c>
       <c r="E42">
         <f>SUM((100*D42)/2048)</f>
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6">
+      <c r="C43" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="3:6">
       <c r="E43">
         <f>SUM((100*D43)/2048)</f>
         <v>0</v>
@@ -2149,13 +2052,13 @@
     </row>
     <row r="44" spans="3:6">
       <c r="E44">
-        <f>SUM((100*D44)/2048)</f>
+        <f t="shared" ref="E2:E45" si="0">SUM((100*D44)/2048)</f>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="3:6">
       <c r="E45">
-        <f>SUM((100*D45)/2048)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2169,9 +2072,9 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="C3:E39">
-    <sortCondition descending="1" ref="D3:D39"/>
-    <sortCondition ref="C3:C39"/>
+  <sortState ref="C2:E43">
+    <sortCondition descending="1" ref="D2:D43"/>
+    <sortCondition ref="C2:C43"/>
   </sortState>
   <conditionalFormatting sqref="C16:C24">
     <cfRule type="cellIs" dxfId="10" priority="19" operator="equal">
@@ -2208,280 +2111,6 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K21"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="D15" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="D16" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2492,13 +2121,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Gimmix/src/geneticEmblem/units/factory/FE.xlsx
+++ b/Gimmix/src/geneticEmblem/units/factory/FE.xlsx
@@ -9,16 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8445" windowHeight="4020" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8445" windowHeight="4020" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Lv1" sheetId="2" r:id="rId1"/>
-    <sheet name="Lv15" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="7" state="hidden" r:id="rId3"/>
-    <sheet name="Lv40" sheetId="3" r:id="rId4"/>
+    <sheet name="Lv40" sheetId="3" r:id="rId2"/>
+    <sheet name="Lv15" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet6" sheetId="12" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="11" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId6"/>
+    <sheet name="Sheet4" sheetId="10" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="7" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Lv15'!$C$2:$E$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Lv15'!$C$2:$E$20</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="89">
   <si>
     <t>Class</t>
   </si>
@@ -233,21 +237,12 @@
     <t>Woodcutter</t>
   </si>
   <si>
-    <t>Refector Mage</t>
-  </si>
-  <si>
-    <t>Nobles</t>
-  </si>
-  <si>
     <t>Blue Mage</t>
   </si>
   <si>
     <t>Jett</t>
   </si>
   <si>
-    <t>Markman</t>
-  </si>
-  <si>
     <t>Kiln Fiend</t>
   </si>
   <si>
@@ -270,6 +265,42 @@
   </si>
   <si>
     <t>Android</t>
+  </si>
+  <si>
+    <t>Scarecrow</t>
+  </si>
+  <si>
+    <t>Smithy</t>
+  </si>
+  <si>
+    <t>Nacatl</t>
+  </si>
+  <si>
+    <t>Incinerator</t>
+  </si>
+  <si>
+    <t>Wyvern</t>
+  </si>
+  <si>
+    <t>Viper</t>
+  </si>
+  <si>
+    <t>Hoodlum</t>
+  </si>
+  <si>
+    <t>Elf</t>
+  </si>
+  <si>
+    <t>Marksman</t>
+  </si>
+  <si>
+    <t>PortalMage</t>
+  </si>
+  <si>
+    <t>KilnFiend</t>
+  </si>
+  <si>
+    <t>Time Mage</t>
   </si>
 </sst>
 </file>
@@ -383,7 +414,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="40">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -415,12 +446,113 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -525,6 +657,127 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1465,25 +1718,25 @@
     <sortCondition descending="1" ref="D2:D30"/>
   </sortState>
   <conditionalFormatting sqref="C16:C24">
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="5" operator="equal">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E30">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="3" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E11">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="2" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1493,635 +1746,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:H46"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="7" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:7" s="4" customFormat="1">
-      <c r="B1" s="3"/>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="4">
-        <f>SUM(E2:E45)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="2:7">
-      <c r="C2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="1">
-        <v>161</v>
-      </c>
-      <c r="E2">
-        <f>SUM((100*D2)/2048)</f>
-        <v>7.861328125</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7">
-      <c r="B3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="1">
-        <v>108</v>
-      </c>
-      <c r="E3">
-        <f>SUM((100*D3)/2048)</f>
-        <v>5.2734375</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7">
-      <c r="C4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="1">
-        <v>107</v>
-      </c>
-      <c r="E4">
-        <f>SUM((100*D4)/2048)</f>
-        <v>5.224609375</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="C5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="1">
-        <v>102</v>
-      </c>
-      <c r="E5">
-        <f>SUM((100*D5)/2048)</f>
-        <v>4.98046875</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="1">
-        <v>86</v>
-      </c>
-      <c r="E6">
-        <f>SUM((100*D6)/2048)</f>
-        <v>4.19921875</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="C7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="1">
-        <v>86</v>
-      </c>
-      <c r="E7">
-        <f>SUM((100*D7)/2048)</f>
-        <v>4.19921875</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="C8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="1">
-        <v>85</v>
-      </c>
-      <c r="E8">
-        <f>SUM((100*D8)/2048)</f>
-        <v>4.150390625</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="C9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="1">
-        <v>82</v>
-      </c>
-      <c r="E9">
-        <f>SUM((100*D9)/2048)</f>
-        <v>4.00390625</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="C10" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="1">
-        <v>79</v>
-      </c>
-      <c r="E10">
-        <f>SUM((100*D10)/2048)</f>
-        <v>3.857421875</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="C11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="1">
-        <v>75</v>
-      </c>
-      <c r="E11">
-        <f>SUM((100*D11)/2048)</f>
-        <v>3.662109375</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="C12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="1">
-        <v>72</v>
-      </c>
-      <c r="E12">
-        <f>SUM((100*D12)/2048)</f>
-        <v>3.515625</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7">
-      <c r="C13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="1">
-        <v>66</v>
-      </c>
-      <c r="E13">
-        <f>SUM((100*D13)/2048)</f>
-        <v>3.22265625</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7">
-      <c r="C14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="1">
-        <v>64</v>
-      </c>
-      <c r="E14">
-        <f>SUM((100*D14)/2048)</f>
-        <v>3.125</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7">
-      <c r="C15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="1">
-        <v>62</v>
-      </c>
-      <c r="E15">
-        <f>SUM((100*D15)/2048)</f>
-        <v>3.02734375</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7">
-      <c r="C16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="1">
-        <v>58</v>
-      </c>
-      <c r="E16">
-        <f>SUM((100*D16)/2048)</f>
-        <v>2.83203125</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="C17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="1">
-        <v>57</v>
-      </c>
-      <c r="E17">
-        <f>SUM((100*D17)/2048)</f>
-        <v>2.783203125</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="1">
-        <v>55</v>
-      </c>
-      <c r="E18">
-        <f>SUM((100*D18)/2048)</f>
-        <v>2.685546875</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="C19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="1">
-        <v>53</v>
-      </c>
-      <c r="E19">
-        <f>SUM((100*D19)/2048)</f>
-        <v>2.587890625</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="3">
-        <f>SUM(E2:E45)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="C20" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="1">
-        <v>52</v>
-      </c>
-      <c r="E20">
-        <f>SUM((100*D20)/2048)</f>
-        <v>2.5390625</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="C21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="1">
-        <v>49</v>
-      </c>
-      <c r="E21">
-        <f>SUM((100*D21)/2048)</f>
-        <v>2.392578125</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="C22" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="1">
-        <v>49</v>
-      </c>
-      <c r="E22">
-        <f>SUM((100*D22)/2048)</f>
-        <v>2.392578125</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="C23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="1">
-        <v>47</v>
-      </c>
-      <c r="E23">
-        <f>SUM((100*D23)/2048)</f>
-        <v>2.294921875</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="C24" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="1">
-        <v>45</v>
-      </c>
-      <c r="E24">
-        <f>SUM((100*D24)/2048)</f>
-        <v>2.197265625</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8">
-      <c r="C25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="1">
-        <v>44</v>
-      </c>
-      <c r="E25">
-        <f>SUM((100*D25)/2048)</f>
-        <v>2.1484375</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="C26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="1">
-        <v>42</v>
-      </c>
-      <c r="E26">
-        <f>SUM((100*D26)/2048)</f>
-        <v>2.05078125</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="C27" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" s="1">
-        <v>39</v>
-      </c>
-      <c r="E27">
-        <f>SUM((100*D27)/2048)</f>
-        <v>1.904296875</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="C28" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D28" s="1">
-        <v>33</v>
-      </c>
-      <c r="E28">
-        <f>SUM((100*D28)/2048)</f>
-        <v>1.611328125</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="C29" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="1">
-        <v>31</v>
-      </c>
-      <c r="E29">
-        <f>SUM((100*D29)/2048)</f>
-        <v>1.513671875</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="C30" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="1">
-        <v>29</v>
-      </c>
-      <c r="E30">
-        <f>SUM((100*D30)/2048)</f>
-        <v>1.416015625</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8">
-      <c r="C31" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" s="1">
-        <v>28</v>
-      </c>
-      <c r="E31">
-        <f>SUM((100*D31)/2048)</f>
-        <v>1.3671875</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8">
-      <c r="C32" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32" s="1">
-        <v>24</v>
-      </c>
-      <c r="E32">
-        <f>SUM((100*D32)/2048)</f>
-        <v>1.171875</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6">
-      <c r="C33" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D33" s="1">
-        <v>18</v>
-      </c>
-      <c r="E33">
-        <f>SUM((100*D33)/2048)</f>
-        <v>0.87890625</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6">
-      <c r="C34" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" s="1">
-        <v>12</v>
-      </c>
-      <c r="E34">
-        <f>SUM((100*D34)/2048)</f>
-        <v>0.5859375</v>
-      </c>
-    </row>
-    <row r="35" spans="3:6">
-      <c r="C35" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D35" s="1">
-        <v>11</v>
-      </c>
-      <c r="E35">
-        <f>SUM((100*D35)/2048)</f>
-        <v>0.537109375</v>
-      </c>
-    </row>
-    <row r="36" spans="3:6">
-      <c r="C36" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D36" s="1">
-        <v>11</v>
-      </c>
-      <c r="E36">
-        <f>SUM((100*D36)/2048)</f>
-        <v>0.537109375</v>
-      </c>
-    </row>
-    <row r="37" spans="3:6">
-      <c r="C37" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D37" s="1">
-        <v>11</v>
-      </c>
-      <c r="E37">
-        <f>SUM((100*D37)/2048)</f>
-        <v>0.537109375</v>
-      </c>
-    </row>
-    <row r="38" spans="3:6">
-      <c r="C38" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D38" s="1">
-        <v>5</v>
-      </c>
-      <c r="E38">
-        <f>SUM((100*D38)/2048)</f>
-        <v>0.244140625</v>
-      </c>
-    </row>
-    <row r="39" spans="3:6">
-      <c r="C39" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D39" s="1">
-        <v>5</v>
-      </c>
-      <c r="E39">
-        <f>SUM((100*D39)/2048)</f>
-        <v>0.244140625</v>
-      </c>
-    </row>
-    <row r="40" spans="3:6">
-      <c r="C40" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D40" s="1">
-        <v>2</v>
-      </c>
-      <c r="E40">
-        <f>SUM((100*D40)/2048)</f>
-        <v>9.765625E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="3:6">
-      <c r="C41" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D41" s="1">
-        <v>2</v>
-      </c>
-      <c r="E41">
-        <f>SUM((100*D41)/2048)</f>
-        <v>9.765625E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="3:6">
-      <c r="C42" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="1">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <f>SUM((100*D42)/2048)</f>
-        <v>4.8828125E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="3:6">
-      <c r="C43" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D43" s="1">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <f>SUM((100*D43)/2048)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="3:6">
-      <c r="E44">
-        <f t="shared" ref="E2:E45" si="0">SUM((100*D44)/2048)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="3:6">
-      <c r="E45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="3:6">
-      <c r="E46" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F46" s="3">
-        <f>SUM(E2:E45)</f>
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="C2:E43">
-    <sortCondition descending="1" ref="D2:D43"/>
-    <sortCondition ref="C2:C43"/>
-  </sortState>
-  <conditionalFormatting sqref="C16:C24">
-    <cfRule type="cellIs" dxfId="10" priority="19" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E45">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E45">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="greaterThan">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
-      <formula>100</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
-      <formula>100</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I42"/>
@@ -2779,16 +2403,2791 @@
     <sortCondition descending="1" ref="D3:D30"/>
   </sortState>
   <conditionalFormatting sqref="C16:C24">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="4" operator="equal">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E33">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="3" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E11">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="greaterThan">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="B1:H35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" s="4" customFormat="1">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="4">
+        <f>SUM(E2:E34)</f>
+        <v>96.630859375</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7">
+      <c r="C2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="1">
+        <v>122</v>
+      </c>
+      <c r="E2">
+        <f>SUM((100*D2)/2048)</f>
+        <v>5.95703125</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="C3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="1">
+        <v>121</v>
+      </c>
+      <c r="E3">
+        <f>SUM((100*D3)/2048)</f>
+        <v>5.908203125</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="C4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="1">
+        <v>110</v>
+      </c>
+      <c r="E4">
+        <f>SUM((100*D4)/2048)</f>
+        <v>5.37109375</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="C5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="1">
+        <v>91</v>
+      </c>
+      <c r="E5">
+        <f>SUM((100*D5)/2048)</f>
+        <v>4.443359375</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="C6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="1">
+        <v>90</v>
+      </c>
+      <c r="E6">
+        <f>SUM((100*D6)/2048)</f>
+        <v>4.39453125</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="C7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="1">
+        <v>82</v>
+      </c>
+      <c r="E7">
+        <f>SUM((100*D7)/2048)</f>
+        <v>4.00390625</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="C8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="1">
+        <v>79</v>
+      </c>
+      <c r="E8">
+        <f>SUM((100*D8)/2048)</f>
+        <v>3.857421875</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="C9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="1">
+        <v>75</v>
+      </c>
+      <c r="E9">
+        <f>SUM((100*D9)/2048)</f>
+        <v>3.662109375</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="C10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="1">
+        <v>73</v>
+      </c>
+      <c r="E10">
+        <f>SUM((100*D10)/2048)</f>
+        <v>3.564453125</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="C11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="1">
+        <v>71</v>
+      </c>
+      <c r="E11">
+        <f>SUM((100*D11)/2048)</f>
+        <v>3.466796875</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="C12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="1">
+        <v>69</v>
+      </c>
+      <c r="E12">
+        <f>SUM((100*D12)/2048)</f>
+        <v>3.369140625</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="C13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="1">
+        <v>67</v>
+      </c>
+      <c r="E13">
+        <f>SUM((100*D13)/2048)</f>
+        <v>3.271484375</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="C14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="1">
+        <v>67</v>
+      </c>
+      <c r="E14">
+        <f>SUM((100*D14)/2048)</f>
+        <v>3.271484375</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="C15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="1">
+        <v>66</v>
+      </c>
+      <c r="E15">
+        <f>SUM((100*D15)/2048)</f>
+        <v>3.22265625</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="C16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="1">
+        <v>58</v>
+      </c>
+      <c r="E16">
+        <f>SUM((100*D16)/2048)</f>
+        <v>2.83203125</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8">
+      <c r="C17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="1">
+        <v>58</v>
+      </c>
+      <c r="E17">
+        <f>SUM((100*D17)/2048)</f>
+        <v>2.83203125</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8">
+      <c r="C18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="1">
+        <v>57</v>
+      </c>
+      <c r="E18">
+        <f>SUM((100*D18)/2048)</f>
+        <v>2.783203125</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8">
+      <c r="C19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="1">
+        <v>57</v>
+      </c>
+      <c r="E19">
+        <f>SUM((100*D19)/2048)</f>
+        <v>2.783203125</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="3">
+        <f>SUM(E2:E34)</f>
+        <v>96.630859375</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8">
+      <c r="C20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="1">
+        <v>53</v>
+      </c>
+      <c r="E20">
+        <f>SUM((100*D20)/2048)</f>
+        <v>2.587890625</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8">
+      <c r="C21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="1">
+        <v>52</v>
+      </c>
+      <c r="E21">
+        <f>SUM((100*D21)/2048)</f>
+        <v>2.5390625</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8">
+      <c r="C22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="1">
+        <v>49</v>
+      </c>
+      <c r="E22">
+        <f>SUM((100*D22)/2048)</f>
+        <v>2.392578125</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8">
+      <c r="C23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="1">
+        <v>48</v>
+      </c>
+      <c r="E23">
+        <f>SUM((100*D23)/2048)</f>
+        <v>2.34375</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8">
+      <c r="C24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="1">
+        <v>44</v>
+      </c>
+      <c r="E24">
+        <f>SUM((100*D24)/2048)</f>
+        <v>2.1484375</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8">
+      <c r="C25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="1">
+        <v>42</v>
+      </c>
+      <c r="E25">
+        <f>SUM((100*D25)/2048)</f>
+        <v>2.05078125</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8">
+      <c r="C26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="1">
+        <v>42</v>
+      </c>
+      <c r="E26">
+        <f>SUM((100*D26)/2048)</f>
+        <v>2.05078125</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8">
+      <c r="C27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="1">
+        <v>40</v>
+      </c>
+      <c r="E27">
+        <f>SUM((100*D27)/2048)</f>
+        <v>1.953125</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8">
+      <c r="C28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="1">
+        <v>39</v>
+      </c>
+      <c r="E28">
+        <f>SUM((100*D28)/2048)</f>
+        <v>1.904296875</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8">
+      <c r="C29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="1">
+        <v>34</v>
+      </c>
+      <c r="E29">
+        <f>SUM((100*D29)/2048)</f>
+        <v>1.66015625</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8">
+      <c r="C30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="1">
+        <v>33</v>
+      </c>
+      <c r="E30">
+        <f>SUM((100*D30)/2048)</f>
+        <v>1.611328125</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8">
+      <c r="C31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="1">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <f>SUM((100*D31)/2048)</f>
+        <v>1.220703125</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8">
+      <c r="C32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="1">
+        <v>23</v>
+      </c>
+      <c r="E32">
+        <f>SUM((100*D32)/2048)</f>
+        <v>1.123046875</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6">
+      <c r="C33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="1">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <f>SUM((100*D33)/2048)</f>
+        <v>1.025390625</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6">
+      <c r="C34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="1">
+        <v>21</v>
+      </c>
+      <c r="E34">
+        <f>SUM((100*D34)/2048)</f>
+        <v>1.025390625</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6">
+      <c r="E35" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="3">
+        <f>SUM(E2:E34)</f>
+        <v>96.630859375</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="C2:E38">
+    <sortCondition descending="1" ref="D2:D38"/>
+    <sortCondition ref="C2:C38"/>
+  </sortState>
+  <conditionalFormatting sqref="C16:C24">
+    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E34">
+    <cfRule type="cellIs" dxfId="20" priority="3" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E34">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="greaterThan">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="1">
+        <v>122</v>
+      </c>
+      <c r="C1">
+        <f>SUM((100*B1)/2048)</f>
+        <v>5.95703125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="1">
+        <v>121</v>
+      </c>
+      <c r="C2">
+        <f>SUM((100*B2)/2048)</f>
+        <v>5.908203125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="1">
+        <v>110</v>
+      </c>
+      <c r="C3">
+        <f>SUM((100*B3)/2048)</f>
+        <v>5.37109375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="1">
+        <v>91</v>
+      </c>
+      <c r="C4">
+        <f>SUM((100*B4)/2048)</f>
+        <v>4.443359375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="1">
+        <v>90</v>
+      </c>
+      <c r="C5">
+        <f>SUM((100*B5)/2048)</f>
+        <v>4.39453125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1">
+        <v>82</v>
+      </c>
+      <c r="C6">
+        <f>SUM((100*B6)/2048)</f>
+        <v>4.00390625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="1">
+        <v>79</v>
+      </c>
+      <c r="C7">
+        <f>SUM((100*B7)/2048)</f>
+        <v>3.857421875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="1">
+        <v>75</v>
+      </c>
+      <c r="C8">
+        <f>SUM((100*B8)/2048)</f>
+        <v>3.662109375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="1">
+        <v>73</v>
+      </c>
+      <c r="C9">
+        <f>SUM((100*B9)/2048)</f>
+        <v>3.564453125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="1">
+        <v>71</v>
+      </c>
+      <c r="C10">
+        <f>SUM((100*B10)/2048)</f>
+        <v>3.466796875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="1">
+        <v>69</v>
+      </c>
+      <c r="C11">
+        <f>SUM((100*B11)/2048)</f>
+        <v>3.369140625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="1">
+        <v>67</v>
+      </c>
+      <c r="C12">
+        <f>SUM((100*B12)/2048)</f>
+        <v>3.271484375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="1">
+        <v>67</v>
+      </c>
+      <c r="C13">
+        <f>SUM((100*B13)/2048)</f>
+        <v>3.271484375</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="1">
+        <v>66</v>
+      </c>
+      <c r="C14">
+        <f>SUM((100*B14)/2048)</f>
+        <v>3.22265625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="1">
+        <v>58</v>
+      </c>
+      <c r="C15">
+        <f>SUM((100*B15)/2048)</f>
+        <v>2.83203125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="1">
+        <v>58</v>
+      </c>
+      <c r="C16">
+        <f>SUM((100*B16)/2048)</f>
+        <v>2.83203125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="1">
+        <v>57</v>
+      </c>
+      <c r="C17">
+        <f>SUM((100*B17)/2048)</f>
+        <v>2.783203125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="1">
+        <v>57</v>
+      </c>
+      <c r="C18">
+        <f>SUM((100*B18)/2048)</f>
+        <v>2.783203125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="1">
+        <v>53</v>
+      </c>
+      <c r="C19">
+        <f>SUM((100*B19)/2048)</f>
+        <v>2.587890625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="1">
+        <v>52</v>
+      </c>
+      <c r="C20">
+        <f>SUM((100*B20)/2048)</f>
+        <v>2.5390625</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="1">
+        <v>49</v>
+      </c>
+      <c r="C21">
+        <f>SUM((100*B21)/2048)</f>
+        <v>2.392578125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="1">
+        <v>48</v>
+      </c>
+      <c r="C22">
+        <f>SUM((100*B22)/2048)</f>
+        <v>2.34375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="1">
+        <v>44</v>
+      </c>
+      <c r="C23">
+        <f>SUM((100*B23)/2048)</f>
+        <v>2.1484375</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="1">
+        <v>42</v>
+      </c>
+      <c r="C24">
+        <f>SUM((100*B24)/2048)</f>
+        <v>2.05078125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="1">
+        <v>42</v>
+      </c>
+      <c r="C25">
+        <f>SUM((100*B25)/2048)</f>
+        <v>2.05078125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="1">
+        <v>40</v>
+      </c>
+      <c r="C26">
+        <f>SUM((100*B26)/2048)</f>
+        <v>1.953125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="1">
+        <v>39</v>
+      </c>
+      <c r="C27">
+        <f>SUM((100*B27)/2048)</f>
+        <v>1.904296875</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="1">
+        <v>34</v>
+      </c>
+      <c r="C28">
+        <f>SUM((100*B28)/2048)</f>
+        <v>1.66015625</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="1">
+        <v>33</v>
+      </c>
+      <c r="C29">
+        <f>SUM((100*B29)/2048)</f>
+        <v>1.611328125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="1">
+        <v>25</v>
+      </c>
+      <c r="C30">
+        <f>SUM((100*B30)/2048)</f>
+        <v>1.220703125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="1">
+        <v>23</v>
+      </c>
+      <c r="C31">
+        <f>SUM((100*B31)/2048)</f>
+        <v>1.123046875</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="1">
+        <v>21</v>
+      </c>
+      <c r="C32">
+        <f>SUM((100*B32)/2048)</f>
+        <v>1.025390625</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="1">
+        <v>21</v>
+      </c>
+      <c r="C33">
+        <f>SUM((100*B33)/2048)</f>
+        <v>1.025390625</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="1">
+        <v>20</v>
+      </c>
+      <c r="C34">
+        <f>SUM((100*B34)/2048)</f>
+        <v>0.9765625</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" s="1">
+        <v>20</v>
+      </c>
+      <c r="C35">
+        <f>SUM((100*B35)/2048)</f>
+        <v>0.9765625</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="1">
+        <v>20</v>
+      </c>
+      <c r="C36">
+        <f>SUM((100*B36)/2048)</f>
+        <v>0.9765625</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="1">
+        <v>9</v>
+      </c>
+      <c r="C37">
+        <f>SUM((100*B37)/2048)</f>
+        <v>0.439453125</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A15:A23">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C37">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C37">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="greaterThan">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="1">
+        <v>120</v>
+      </c>
+      <c r="C1">
+        <f>SUM((100*B1)/2048)</f>
+        <v>5.859375</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="1">
+        <v>108</v>
+      </c>
+      <c r="C2">
+        <f>SUM((100*B2)/2048)</f>
+        <v>5.2734375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="1">
+        <v>94</v>
+      </c>
+      <c r="C3">
+        <f>SUM((100*B3)/2048)</f>
+        <v>4.58984375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="1">
+        <v>90</v>
+      </c>
+      <c r="C4">
+        <f>SUM((100*B4)/2048)</f>
+        <v>4.39453125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="1">
+        <v>89</v>
+      </c>
+      <c r="C5">
+        <f>SUM((100*B5)/2048)</f>
+        <v>4.345703125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="1">
+        <v>84</v>
+      </c>
+      <c r="C6">
+        <f>SUM((100*B6)/2048)</f>
+        <v>4.1015625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1">
+        <v>83</v>
+      </c>
+      <c r="C7">
+        <f>SUM((100*B7)/2048)</f>
+        <v>4.052734375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="1">
+        <v>78</v>
+      </c>
+      <c r="C8">
+        <f>SUM((100*B8)/2048)</f>
+        <v>3.80859375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="1">
+        <v>78</v>
+      </c>
+      <c r="C9">
+        <f>SUM((100*B9)/2048)</f>
+        <v>3.80859375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="1">
+        <v>74</v>
+      </c>
+      <c r="C10">
+        <f>SUM((100*B10)/2048)</f>
+        <v>3.61328125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="1">
+        <v>67</v>
+      </c>
+      <c r="C11">
+        <f>SUM((100*B11)/2048)</f>
+        <v>3.271484375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="1">
+        <v>67</v>
+      </c>
+      <c r="C12">
+        <f>SUM((100*B12)/2048)</f>
+        <v>3.271484375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="1">
+        <v>59</v>
+      </c>
+      <c r="C13">
+        <f>SUM((100*B13)/2048)</f>
+        <v>2.880859375</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1">
+        <v>59</v>
+      </c>
+      <c r="C14">
+        <f>SUM((100*B14)/2048)</f>
+        <v>2.880859375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="1">
+        <v>59</v>
+      </c>
+      <c r="C15">
+        <f>SUM((100*B15)/2048)</f>
+        <v>2.880859375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="1">
+        <v>59</v>
+      </c>
+      <c r="C16">
+        <f>SUM((100*B16)/2048)</f>
+        <v>2.880859375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="1">
+        <v>58</v>
+      </c>
+      <c r="C17">
+        <f>SUM((100*B17)/2048)</f>
+        <v>2.83203125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="1">
+        <v>56</v>
+      </c>
+      <c r="C18">
+        <f>SUM((100*B18)/2048)</f>
+        <v>2.734375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="1">
+        <v>52</v>
+      </c>
+      <c r="C19">
+        <f>SUM((100*B19)/2048)</f>
+        <v>2.5390625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="1">
+        <v>48</v>
+      </c>
+      <c r="C20">
+        <f>SUM((100*B20)/2048)</f>
+        <v>2.34375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="1">
+        <v>43</v>
+      </c>
+      <c r="C21">
+        <f>SUM((100*B21)/2048)</f>
+        <v>2.099609375</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="1">
+        <v>43</v>
+      </c>
+      <c r="C22">
+        <f>SUM((100*B22)/2048)</f>
+        <v>2.099609375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="1">
+        <v>42</v>
+      </c>
+      <c r="C23">
+        <f>SUM((100*B23)/2048)</f>
+        <v>2.05078125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="1">
+        <v>39</v>
+      </c>
+      <c r="C24">
+        <f>SUM((100*B24)/2048)</f>
+        <v>1.904296875</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="1">
+        <v>38</v>
+      </c>
+      <c r="C25">
+        <f>SUM((100*B25)/2048)</f>
+        <v>1.85546875</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="1">
+        <v>38</v>
+      </c>
+      <c r="C26">
+        <f>SUM((100*B26)/2048)</f>
+        <v>1.85546875</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1">
+        <v>37</v>
+      </c>
+      <c r="C27">
+        <f>SUM((100*B27)/2048)</f>
+        <v>1.806640625</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="1">
+        <v>31</v>
+      </c>
+      <c r="C28">
+        <f>SUM((100*B28)/2048)</f>
+        <v>1.513671875</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="1">
+        <v>30</v>
+      </c>
+      <c r="C29">
+        <f>SUM((100*B29)/2048)</f>
+        <v>1.46484375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="1">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <f>SUM((100*B30)/2048)</f>
+        <v>1.46484375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="1">
+        <v>28</v>
+      </c>
+      <c r="C31">
+        <f>SUM((100*B31)/2048)</f>
+        <v>1.3671875</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="1">
+        <v>26</v>
+      </c>
+      <c r="C32">
+        <f>SUM((100*B32)/2048)</f>
+        <v>1.26953125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="1">
+        <v>25</v>
+      </c>
+      <c r="C33">
+        <f>SUM((100*B33)/2048)</f>
+        <v>1.220703125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="1">
+        <v>24</v>
+      </c>
+      <c r="C34">
+        <f>SUM((100*B34)/2048)</f>
+        <v>1.171875</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="1">
+        <v>22</v>
+      </c>
+      <c r="C35">
+        <f>SUM((100*B35)/2048)</f>
+        <v>1.07421875</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="1">
+        <v>17</v>
+      </c>
+      <c r="C36">
+        <f>SUM((100*B36)/2048)</f>
+        <v>0.830078125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="1">
+        <v>13</v>
+      </c>
+      <c r="C37">
+        <f>SUM((100*B37)/2048)</f>
+        <v>0.634765625</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="1">
+        <v>10</v>
+      </c>
+      <c r="C38">
+        <f>SUM((100*B38)/2048)</f>
+        <v>0.48828125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="1">
+        <v>8</v>
+      </c>
+      <c r="C39">
+        <f>SUM((100*B39)/2048)</f>
+        <v>0.390625</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" s="1">
+        <v>7</v>
+      </c>
+      <c r="C40">
+        <f>SUM((100*B40)/2048)</f>
+        <v>0.341796875</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="1">
+        <v>6</v>
+      </c>
+      <c r="C41">
+        <f>SUM((100*B41)/2048)</f>
+        <v>0.29296875</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="1">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <f>SUM((100*B42)/2048)</f>
+        <v>0.244140625</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="1">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <f>SUM((100*B43)/2048)</f>
+        <v>0.146484375</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <f>SUM((100*B44)/2048)</f>
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A15:A23">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C44">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C44">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="greaterThan">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="1">
+        <v>111</v>
+      </c>
+      <c r="C1">
+        <f>SUM((100*B1)/2048)</f>
+        <v>5.419921875</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="1">
+        <v>109</v>
+      </c>
+      <c r="C2">
+        <f>SUM((100*B2)/2048)</f>
+        <v>5.322265625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="1">
+        <v>102</v>
+      </c>
+      <c r="C3">
+        <f>SUM((100*B3)/2048)</f>
+        <v>4.98046875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="1">
+        <v>97</v>
+      </c>
+      <c r="C4">
+        <f>SUM((100*B4)/2048)</f>
+        <v>4.736328125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="1">
+        <v>93</v>
+      </c>
+      <c r="C5">
+        <f>SUM((100*B5)/2048)</f>
+        <v>4.541015625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="1">
+        <v>92</v>
+      </c>
+      <c r="C6">
+        <f>SUM((100*B6)/2048)</f>
+        <v>4.4921875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1">
+        <v>80</v>
+      </c>
+      <c r="C7">
+        <f>SUM((100*B7)/2048)</f>
+        <v>3.90625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="1">
+        <v>79</v>
+      </c>
+      <c r="C8">
+        <f>SUM((100*B8)/2048)</f>
+        <v>3.857421875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="1">
+        <v>79</v>
+      </c>
+      <c r="C9">
+        <f>SUM((100*B9)/2048)</f>
+        <v>3.857421875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="1">
+        <v>75</v>
+      </c>
+      <c r="C10">
+        <f>SUM((100*B10)/2048)</f>
+        <v>3.662109375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="1">
+        <v>74</v>
+      </c>
+      <c r="C11">
+        <f>SUM((100*B11)/2048)</f>
+        <v>3.61328125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="1">
+        <v>69</v>
+      </c>
+      <c r="C12">
+        <f>SUM((100*B12)/2048)</f>
+        <v>3.369140625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="1">
+        <v>66</v>
+      </c>
+      <c r="C13">
+        <f>SUM((100*B13)/2048)</f>
+        <v>3.22265625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="1">
+        <v>64</v>
+      </c>
+      <c r="C14">
+        <f>SUM((100*B14)/2048)</f>
+        <v>3.125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="1">
+        <v>61</v>
+      </c>
+      <c r="C15">
+        <f>SUM((100*B15)/2048)</f>
+        <v>2.978515625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="1">
+        <v>56</v>
+      </c>
+      <c r="C16">
+        <f>SUM((100*B16)/2048)</f>
+        <v>2.734375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="1">
+        <v>51</v>
+      </c>
+      <c r="C17">
+        <f>SUM((100*B17)/2048)</f>
+        <v>2.490234375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="1">
+        <v>51</v>
+      </c>
+      <c r="C18">
+        <f>SUM((100*B18)/2048)</f>
+        <v>2.490234375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="1">
+        <v>49</v>
+      </c>
+      <c r="C19">
+        <f>SUM((100*B19)/2048)</f>
+        <v>2.392578125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="1">
+        <v>43</v>
+      </c>
+      <c r="C20">
+        <f>SUM((100*B20)/2048)</f>
+        <v>2.099609375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="1">
+        <v>42</v>
+      </c>
+      <c r="C21">
+        <f>SUM((100*B21)/2048)</f>
+        <v>2.05078125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="1">
+        <v>41</v>
+      </c>
+      <c r="C22">
+        <f>SUM((100*B22)/2048)</f>
+        <v>2.001953125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="1">
+        <v>37</v>
+      </c>
+      <c r="C23">
+        <f>SUM((100*B23)/2048)</f>
+        <v>1.806640625</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="1">
+        <v>37</v>
+      </c>
+      <c r="C24">
+        <f>SUM((100*B24)/2048)</f>
+        <v>1.806640625</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="1">
+        <v>37</v>
+      </c>
+      <c r="C25">
+        <f>SUM((100*B25)/2048)</f>
+        <v>1.806640625</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="1">
+        <v>36</v>
+      </c>
+      <c r="C26">
+        <f>SUM((100*B26)/2048)</f>
+        <v>1.7578125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="1">
+        <v>35</v>
+      </c>
+      <c r="C27">
+        <f>SUM((100*B27)/2048)</f>
+        <v>1.708984375</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="1">
+        <v>34</v>
+      </c>
+      <c r="C28">
+        <f>SUM((100*B28)/2048)</f>
+        <v>1.66015625</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="1">
+        <v>32</v>
+      </c>
+      <c r="C29">
+        <f>SUM((100*B29)/2048)</f>
+        <v>1.5625</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="1">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <f>SUM((100*B30)/2048)</f>
+        <v>1.46484375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="1">
+        <v>28</v>
+      </c>
+      <c r="C31">
+        <f>SUM((100*B31)/2048)</f>
+        <v>1.3671875</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="1">
+        <v>25</v>
+      </c>
+      <c r="C32">
+        <f>SUM((100*B32)/2048)</f>
+        <v>1.220703125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" s="1">
+        <v>25</v>
+      </c>
+      <c r="C33">
+        <f>SUM((100*B33)/2048)</f>
+        <v>1.220703125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="1">
+        <v>23</v>
+      </c>
+      <c r="C34">
+        <f>SUM((100*B34)/2048)</f>
+        <v>1.123046875</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="1">
+        <v>17</v>
+      </c>
+      <c r="C35">
+        <f>SUM((100*B35)/2048)</f>
+        <v>0.830078125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="1">
+        <v>15</v>
+      </c>
+      <c r="C36">
+        <f>SUM((100*B36)/2048)</f>
+        <v>0.732421875</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="1">
+        <v>14</v>
+      </c>
+      <c r="C37">
+        <f>SUM((100*B37)/2048)</f>
+        <v>0.68359375</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" s="1">
+        <v>11</v>
+      </c>
+      <c r="C38">
+        <f>SUM((100*B38)/2048)</f>
+        <v>0.537109375</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="1">
+        <v>9</v>
+      </c>
+      <c r="C39">
+        <f>SUM((100*B39)/2048)</f>
+        <v>0.439453125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="1">
+        <v>8</v>
+      </c>
+      <c r="C40">
+        <f>SUM((100*B40)/2048)</f>
+        <v>0.390625</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" s="1">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <f>SUM((100*B41)/2048)</f>
+        <v>0.1953125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="1">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <f>SUM((100*B42)/2048)</f>
+        <v>0.146484375</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="1">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <f>SUM((100*B43)/2048)</f>
+        <v>9.765625E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <f>SUM((100*B44)/2048)</f>
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <f>SUM((100*B45)/2048)</f>
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <f>SUM((100*B46)/2048)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <f>SUM((100*B47)/2048)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <f>SUM((100*B48)/2048)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <f>SUM((100*B49)/2048)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <f>SUM((100*B50)/2048)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <f>SUM((100*B51)/2048)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A15:A23">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C51">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C51">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="1">
+        <v>116</v>
+      </c>
+      <c r="C1">
+        <f>SUM((100*B1)/2048)</f>
+        <v>5.6640625</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="1">
+        <v>111</v>
+      </c>
+      <c r="C2">
+        <f>SUM((100*B2)/2048)</f>
+        <v>5.419921875</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="1">
+        <v>94</v>
+      </c>
+      <c r="C3">
+        <f>SUM((100*B3)/2048)</f>
+        <v>4.58984375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="1">
+        <v>90</v>
+      </c>
+      <c r="C4">
+        <f>SUM((100*B4)/2048)</f>
+        <v>4.39453125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="1">
+        <v>88</v>
+      </c>
+      <c r="C5">
+        <f>SUM((100*B5)/2048)</f>
+        <v>4.296875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="1">
+        <v>84</v>
+      </c>
+      <c r="C6">
+        <f>SUM((100*B6)/2048)</f>
+        <v>4.1015625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="1">
+        <v>82</v>
+      </c>
+      <c r="C7">
+        <f>SUM((100*B7)/2048)</f>
+        <v>4.00390625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="1">
+        <v>75</v>
+      </c>
+      <c r="C8">
+        <f>SUM((100*B8)/2048)</f>
+        <v>3.662109375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="1">
+        <v>74</v>
+      </c>
+      <c r="C9">
+        <f>SUM((100*B9)/2048)</f>
+        <v>3.61328125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="1">
+        <v>71</v>
+      </c>
+      <c r="C10">
+        <f>SUM((100*B10)/2048)</f>
+        <v>3.466796875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="1">
+        <v>68</v>
+      </c>
+      <c r="C11">
+        <f>SUM((100*B11)/2048)</f>
+        <v>3.3203125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="1">
+        <v>60</v>
+      </c>
+      <c r="C12">
+        <f>SUM((100*B12)/2048)</f>
+        <v>2.9296875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1">
+        <v>60</v>
+      </c>
+      <c r="C13">
+        <f>SUM((100*B13)/2048)</f>
+        <v>2.9296875</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="1">
+        <v>58</v>
+      </c>
+      <c r="C14">
+        <f>SUM((100*B14)/2048)</f>
+        <v>2.83203125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="1">
+        <v>57</v>
+      </c>
+      <c r="C15">
+        <f>SUM((100*B15)/2048)</f>
+        <v>2.783203125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="1">
+        <v>55</v>
+      </c>
+      <c r="C16">
+        <f>SUM((100*B16)/2048)</f>
+        <v>2.685546875</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="1">
+        <v>52</v>
+      </c>
+      <c r="C17">
+        <f>SUM((100*B17)/2048)</f>
+        <v>2.5390625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="1">
+        <v>51</v>
+      </c>
+      <c r="C18">
+        <f>SUM((100*B18)/2048)</f>
+        <v>2.490234375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="1">
+        <v>51</v>
+      </c>
+      <c r="C19">
+        <f>SUM((100*B19)/2048)</f>
+        <v>2.490234375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="1">
+        <v>50</v>
+      </c>
+      <c r="C20">
+        <f>SUM((100*B20)/2048)</f>
+        <v>2.44140625</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="1">
+        <v>48</v>
+      </c>
+      <c r="C21">
+        <f>SUM((100*B21)/2048)</f>
+        <v>2.34375</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="1">
+        <v>48</v>
+      </c>
+      <c r="C22">
+        <f>SUM((100*B22)/2048)</f>
+        <v>2.34375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="1">
+        <v>47</v>
+      </c>
+      <c r="C23">
+        <f>SUM((100*B23)/2048)</f>
+        <v>2.294921875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="1">
+        <v>42</v>
+      </c>
+      <c r="C24">
+        <f>SUM((100*B24)/2048)</f>
+        <v>2.05078125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="1">
+        <v>40</v>
+      </c>
+      <c r="C25">
+        <f>SUM((100*B25)/2048)</f>
+        <v>1.953125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="1">
+        <v>39</v>
+      </c>
+      <c r="C26">
+        <f>SUM((100*B26)/2048)</f>
+        <v>1.904296875</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="1">
+        <v>37</v>
+      </c>
+      <c r="C27">
+        <f>SUM((100*B27)/2048)</f>
+        <v>1.806640625</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="1">
+        <v>37</v>
+      </c>
+      <c r="C28">
+        <f>SUM((100*B28)/2048)</f>
+        <v>1.806640625</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="1">
+        <v>36</v>
+      </c>
+      <c r="C29">
+        <f>SUM((100*B29)/2048)</f>
+        <v>1.7578125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="1">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <f>SUM((100*B30)/2048)</f>
+        <v>1.46484375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" s="1">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <f>SUM((100*B31)/2048)</f>
+        <v>1.416015625</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" s="1">
+        <v>27</v>
+      </c>
+      <c r="C32">
+        <f>SUM((100*B32)/2048)</f>
+        <v>1.318359375</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="1">
+        <v>24</v>
+      </c>
+      <c r="C33">
+        <f>SUM((100*B33)/2048)</f>
+        <v>1.171875</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="1">
+        <v>21</v>
+      </c>
+      <c r="C34">
+        <f>SUM((100*B34)/2048)</f>
+        <v>1.025390625</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="1">
+        <v>19</v>
+      </c>
+      <c r="C35">
+        <f>SUM((100*B35)/2048)</f>
+        <v>0.927734375</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="1">
+        <v>17</v>
+      </c>
+      <c r="C36">
+        <f>SUM((100*B36)/2048)</f>
+        <v>0.830078125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="1">
+        <v>15</v>
+      </c>
+      <c r="C37">
+        <f>SUM((100*B37)/2048)</f>
+        <v>0.732421875</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="1">
+        <v>13</v>
+      </c>
+      <c r="C38">
+        <f>SUM((100*B38)/2048)</f>
+        <v>0.634765625</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="1">
+        <v>13</v>
+      </c>
+      <c r="C39">
+        <f>SUM((100*B39)/2048)</f>
+        <v>0.634765625</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" s="1">
+        <v>8</v>
+      </c>
+      <c r="C40">
+        <f>SUM((100*B40)/2048)</f>
+        <v>0.390625</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" s="1">
+        <v>7</v>
+      </c>
+      <c r="C41">
+        <f>SUM((100*B41)/2048)</f>
+        <v>0.341796875</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="1">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <f>SUM((100*B42)/2048)</f>
+        <v>0.146484375</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <f>SUM((100*B43)/2048)</f>
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <f>SUM((100*B44)/2048)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <f>SUM((100*B45)/2048)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <f>SUM((100*B49)/2048)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A15:A23">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C49">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
@@ -2796,12 +5195,23 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E11">
+  <conditionalFormatting sqref="C1:C49">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Gimmix/src/geneticEmblem/units/factory/FE.xlsx
+++ b/Gimmix/src/geneticEmblem/units/factory/FE.xlsx
@@ -13,7 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="14" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="7" state="hidden" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="16" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="15" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="7" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="44">
   <si>
     <t>Class</t>
   </si>
@@ -39,9 +41,6 @@
     <t>Meta %:</t>
   </si>
   <si>
-    <t>Aran</t>
-  </si>
-  <si>
     <t>Assassin</t>
   </si>
   <si>
@@ -78,12 +77,6 @@
     <t>Striker</t>
   </si>
   <si>
-    <t>Fire / Poison</t>
-  </si>
-  <si>
-    <t>Ice / Lightning</t>
-  </si>
-  <si>
     <t>Night Walker</t>
   </si>
   <si>
@@ -115,6 +108,57 @@
   </si>
   <si>
     <t>Too few</t>
+  </si>
+  <si>
+    <t>Henehoe</t>
+  </si>
+  <si>
+    <t>Mihile</t>
+  </si>
+  <si>
+    <t>Demon Avenger</t>
+  </si>
+  <si>
+    <t>Evil Eye</t>
+  </si>
+  <si>
+    <t>Flame Wizard</t>
+  </si>
+  <si>
+    <t>Ice Lightning</t>
+  </si>
+  <si>
+    <t>Fire Poison</t>
+  </si>
+  <si>
+    <t>Kaiser</t>
+  </si>
+  <si>
+    <t>Mercedes</t>
+  </si>
+  <si>
+    <t>Melee</t>
+  </si>
+  <si>
+    <t>Magic</t>
+  </si>
+  <si>
+    <t>Bow</t>
+  </si>
+  <si>
+    <t>Stealth</t>
+  </si>
+  <si>
+    <t>Seafare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is the attacker </t>
+  </si>
+  <si>
+    <t>This is the defender</t>
+  </si>
+  <si>
+    <t>beats</t>
   </si>
 </sst>
 </file>
@@ -138,7 +182,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -146,11 +190,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -167,11 +226,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -512,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,9 +645,9 @@
     <col min="7" max="7" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -550,271 +666,275 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1">
-        <v>335</v>
+        <v>270</v>
       </c>
       <c r="D2">
         <f>SUM((100*C2)/2048)</f>
-        <v>16.357421875</v>
+        <v>13.18359375</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H2">
         <f>SUM((100*H3*2.25)/2048)</f>
-        <v>11.2060546875</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8.89892578125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1">
-        <v>328</v>
+        <v>248</v>
       </c>
       <c r="D3">
         <f>SUM((100*C3)/2048)</f>
-        <v>16.015625</v>
+        <v>12.109375</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H3">
         <f>ROUNDDOWN(SUM(2048/A1),0)</f>
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="D4">
         <f>SUM((100*C4)/2048)</f>
-        <v>11.9140625</v>
+        <v>11.181640625</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H4">
         <f>SUM(100*ROUNDDOWN(SUM(H3/3),0)/2048)</f>
-        <v>1.66015625</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.318359375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1">
-        <v>229</v>
+        <v>175</v>
       </c>
       <c r="D5">
         <f>SUM((100*C5)/2048)</f>
-        <v>11.181640625</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8.544921875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="D6">
         <f>SUM((100*C6)/2048)</f>
-        <v>9.765625</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6.8359375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="D7">
         <f>SUM((100*C7)/2048)</f>
-        <v>7.03125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6.15234375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C8" s="1">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="D8">
         <f>SUM((100*C8)/2048)</f>
-        <v>4.39453125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6.005859375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D9">
         <f>SUM((100*C9)/2048)</f>
-        <v>4.39453125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5.95703125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="D10">
         <f>SUM((100*C10)/2048)</f>
-        <v>4.052734375</v>
+        <v>5.859375</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G10">
         <f>SUM(D2:D4)</f>
-        <v>44.287109375</v>
-      </c>
-      <c r="H10">
-        <v>57.8125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>36.474609375</v>
+      </c>
+      <c r="I10">
+        <v>52.63671875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="D11">
         <f>SUM((100*C11)/2048)</f>
-        <v>3.173828125</v>
+        <v>4.443359375</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G11">
-        <f>SUM(D5:D12)</f>
-        <v>46.875</v>
-      </c>
-      <c r="H11">
-        <v>37.353515629999997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <f>SUM(D5:D17)</f>
+        <v>58.49609375</v>
+      </c>
+      <c r="I11">
+        <v>42.236328129999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D12">
         <f>SUM((100*C12)/2048)</f>
-        <v>2.880859375</v>
+        <v>3.61328125</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G12">
-        <f>SUM(D13:D22)</f>
-        <v>8.837890625</v>
+        <f>SUM(D18:D27)</f>
+        <v>5.029296875</v>
       </c>
       <c r="H12">
-        <v>6.298828125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <f>SUM(G10:G12)</f>
+        <v>100</v>
+      </c>
+      <c r="I12">
+        <v>5.126953125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="D13">
         <f>SUM((100*C13)/2048)</f>
-        <v>1.513671875</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3.271484375</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C14" s="1">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="D14">
         <f>SUM((100*C14)/2048)</f>
-        <v>1.416015625</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2.9296875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C15" s="1">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D15">
         <f>SUM((100*C15)/2048)</f>
-        <v>1.318359375</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.806640625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D16">
         <f>SUM((100*C16)/2048)</f>
-        <v>1.318359375</v>
+        <v>1.7578125</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C17" s="1">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D17">
         <f>SUM((100*C17)/2048)</f>
-        <v>1.171875</v>
+        <v>1.318359375</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C18" s="1">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D18">
         <f>SUM((100*C18)/2048)</f>
-        <v>0.9765625</v>
+        <v>1.171875</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C19" s="1">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D19">
         <f>SUM((100*C19)/2048)</f>
-        <v>0.5859375</v>
+        <v>0.87890625</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>3</v>
@@ -826,85 +946,121 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C20" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D20">
         <f>SUM((100*C20)/2048)</f>
-        <v>0.537109375</v>
+        <v>0.68359375</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C21" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D21">
         <f>SUM((100*C21)/2048)</f>
-        <v>0</v>
+        <v>0.537109375</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="1">
+        <v>9</v>
+      </c>
       <c r="D22">
-        <f t="shared" ref="D22" si="0">SUM((100*C22)/2048)</f>
-        <v>0</v>
+        <f>SUM((100*C22)/2048)</f>
+        <v>0.439453125</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="1">
+        <v>8</v>
+      </c>
       <c r="D23">
-        <f t="shared" ref="D23:D31" si="1">SUM((100*C23)/2048)</f>
-        <v>0</v>
+        <f>SUM((100*C23)/2048)</f>
+        <v>0.390625</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="1">
+        <v>8</v>
+      </c>
       <c r="D24">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM((100*C24)/2048)</f>
+        <v>0.390625</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="1">
+        <v>7</v>
+      </c>
       <c r="D25">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM((100*C25)/2048)</f>
+        <v>0.341796875</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="1">
+        <v>4</v>
+      </c>
       <c r="D26">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM((100*C26)/2048)</f>
+        <v>0.1953125</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
       <c r="D27">
-        <f t="shared" si="1"/>
+        <f>SUM((100*C27)/2048)</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D28">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D26:D31" si="0">SUM((100*C28)/2048)</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -918,34 +1074,34 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="B2:D21">
-    <sortCondition descending="1" ref="C2:C21"/>
+  <sortState ref="B2:D27">
+    <sortCondition descending="1" ref="C2:C27"/>
   </sortState>
   <conditionalFormatting sqref="B16:B21">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D22">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="D2:D27">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="greaterThan">
       <formula>$H$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="lessThan">
       <formula>$H$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
@@ -954,6 +1110,615 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="20.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E1" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E3" s="6">
+        <v>-1</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <f>SUM(C3:G3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>-1</v>
+      </c>
+      <c r="F4" s="6">
+        <v>-1</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" ref="H4:H7" si="0">SUM(C4:G4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>-1</v>
+      </c>
+      <c r="G5" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D7" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="2">
+        <f t="shared" ref="C8:F8" si="1">SUM(C3:C7)</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <f>SUM(G3:G7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="H3:H7 C8:G8">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I32"/>
+  <sheetViews>
+    <sheetView topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3">
+        <f>SUM(D2:D31)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1">
+        <v>596</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:D10" si="0">SUM((100*C2)/2048)</f>
+        <v>29.1015625</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2">
+        <f>SUM((100*H3*2.25)/2048)</f>
+        <v>24.93896484375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1">
+        <v>405</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>19.775390625</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3">
+        <f>ROUNDDOWN(SUM(2048/A1),0)</f>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1">
+        <v>255</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>12.451171875</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4">
+        <f>SUM(100*ROUNDDOWN(SUM(H3/3),0)/2048)</f>
+        <v>3.662109375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1">
+        <v>182</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>8.88671875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1">
+        <v>174</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>8.49609375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1">
+        <v>156</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>7.6171875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1">
+        <v>104</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>5.078125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1">
+        <v>101</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>4.931640625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1">
+        <v>75</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>3.662109375</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10">
+        <f>SUM(D2)</f>
+        <v>29.1015625</v>
+      </c>
+      <c r="I10">
+        <v>52.63671875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11">
+        <f>SUM(D3:D10)</f>
+        <v>70.8984375</v>
+      </c>
+      <c r="I11">
+        <v>42.236328129999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12">
+        <f>SUM(D15:D25)</f>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f>SUM(G10:G12)</f>
+        <v>100</v>
+      </c>
+      <c r="I12">
+        <v>5.126953125</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="F19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="3">
+        <f>SUM(D2:D31)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <f t="shared" ref="D25:D31" si="1">SUM((100*C25)/2048)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D32" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
+        <f>SUM(D2:D31)</f>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="B2:D10">
+    <sortCondition descending="1" ref="C2:C10"/>
+  </sortState>
+  <conditionalFormatting sqref="B16:B21">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D24">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+      <formula>$H$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
+      <formula>$H$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
